--- a/ref/app-monitoring/data/AppPerformance.xlsx
+++ b/ref/app-monitoring/data/AppPerformance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafael/cloudvista/vaa/ref/app-monitoring/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9858A895-E621-B54B-AAA4-48C72DFF5771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A8E1C6-BB12-D348-855D-D68C5C616E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="500" windowWidth="23860" windowHeight="19680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="500" windowWidth="28600" windowHeight="19680" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AppPerformance" sheetId="1" r:id="rId1"/>
@@ -19,28 +19,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AppPerformance!$A$1:$H$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'apps-subset'!$A$1:$J$57</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'apps-subset'!$D$2:$D$21</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'apps-subset'!$E$2:$E$21</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'apps-subset'!$D$2:$D$21</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'apps-subset'!$E$2:$E$21</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'apps-subset'!$D$2:$D$21</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'apps-subset'!$E$2:$E$21</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'apps-subset'!$D$2:$D$21</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'apps-subset'!$E$2:$E$21</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'apps-subset'!$D$2:$D$21</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'apps-subset'!$E$2:$E$21</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'apps-subset'!$D$2:$D$15</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'apps-subset'!$D$2:$D$21</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'apps-subset'!$E$2:$E$21</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'apps-subset'!$E$2:$E$15</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'apps-subset'!$D$2:$D$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'apps-subset'!$E$2:$E$21</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'apps-subset'!$D$2:$D$21</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'apps-subset'!$E$2:$E$21</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'apps-subset'!$D$2:$D$21</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'apps-subset'!$E$2:$E$21</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'apps-subset'!$D$2:$D$21</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">'apps-subset'!$E$2:$E$21</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">'apps-subset'!$D$2:$D$21</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">'apps-subset'!$E$2:$E$21</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">'apps-subset'!$D$2:$D$15</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'apps-subset'!$E$2:$E$15</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -513,12 +501,6 @@
     <t>Configuration Manager</t>
   </si>
   <si>
-    <t>CPRS Booster</t>
-  </si>
-  <si>
-    <t>CPRS Launcher</t>
-  </si>
-  <si>
     <t>????</t>
   </si>
   <si>
@@ -565,6 +547,12 @@
   </si>
   <si>
     <t>MS-Teams</t>
+  </si>
+  <si>
+    <t>VistA-CPRS-Booster</t>
+  </si>
+  <si>
+    <t>VistA-CPRS_Launcher</t>
   </si>
 </sst>
 </file>
@@ -616,19 +604,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,6 +644,40 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>VA End-user application use duration </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(thousands of hours per week)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -693,31 +710,65 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill>
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent6">
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="99000"/>
                       <a:shade val="78000"/>
                     </a:schemeClr>
@@ -739,24 +790,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill>
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent5">
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="99000"/>
                       <a:shade val="78000"/>
                     </a:schemeClr>
@@ -778,24 +830,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill>
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent4">
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="99000"/>
                       <a:shade val="78000"/>
                     </a:schemeClr>
@@ -809,30 +862,33 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-EF6E-B54A-B281-8CFBC16BF311}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill>
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="99000"/>
                       <a:shade val="78000"/>
                     </a:schemeClr>
@@ -846,30 +902,33 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-EF6E-B54A-B281-8CFBC16BF311}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill>
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="99000"/>
                       <a:shade val="78000"/>
                     </a:schemeClr>
@@ -883,30 +942,33 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-EF6E-B54A-B281-8CFBC16BF311}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill>
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="99000"/>
                       <a:shade val="78000"/>
                     </a:schemeClr>
@@ -920,33 +982,33 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-EF6E-B54A-B281-8CFBC16BF311}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill>
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="99000"/>
                       <a:shade val="78000"/>
                     </a:schemeClr>
@@ -968,30 +1030,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill>
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="99000"/>
                       <a:shade val="78000"/>
                     </a:schemeClr>
@@ -1013,30 +1070,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill>
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="99000"/>
                       <a:shade val="78000"/>
                     </a:schemeClr>
@@ -1058,27 +1110,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill>
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="80000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="80000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="80000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="99000"/>
                       <a:shade val="78000"/>
                     </a:schemeClr>
@@ -1100,27 +1150,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill>
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="80000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="80000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="80000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="99000"/>
                       <a:shade val="78000"/>
                     </a:schemeClr>
@@ -1134,30 +1182,33 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-EF6E-B54A-B281-8CFBC16BF311}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill>
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="80000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="80000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="80000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="99000"/>
                       <a:shade val="78000"/>
                     </a:schemeClr>
@@ -1171,33 +1222,33 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-EF6E-B54A-B281-8CFBC16BF311}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill>
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="99000"/>
                       <a:shade val="78000"/>
                     </a:schemeClr>
@@ -1211,33 +1262,33 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-EF6E-B54A-B281-8CFBC16BF311}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill>
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="99000"/>
                       <a:shade val="78000"/>
                     </a:schemeClr>
@@ -1251,33 +1302,33 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-EF6E-B54A-B281-8CFBC16BF311}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill>
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="99000"/>
                       <a:shade val="78000"/>
                     </a:schemeClr>
@@ -1291,30 +1342,33 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-EF6E-B54A-B281-8CFBC16BF311}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill>
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="50000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="50000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="50000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="99000"/>
                       <a:shade val="78000"/>
                     </a:schemeClr>
@@ -1328,30 +1382,33 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-EF6E-B54A-B281-8CFBC16BF311}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill>
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="50000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="50000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="50000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="99000"/>
                       <a:shade val="78000"/>
                     </a:schemeClr>
@@ -1365,30 +1422,33 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-EF6E-B54A-B281-8CFBC16BF311}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill>
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="50000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="50000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="50000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="99000"/>
                       <a:shade val="78000"/>
                     </a:schemeClr>
@@ -1402,33 +1462,33 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-EF6E-B54A-B281-8CFBC16BF311}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill>
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="70000"/>
-                      <a:lumOff val="30000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="70000"/>
-                      <a:lumOff val="30000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="70000"/>
-                      <a:lumOff val="30000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="99000"/>
                       <a:shade val="78000"/>
                     </a:schemeClr>
@@ -1442,33 +1502,33 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-EF6E-B54A-B281-8CFBC16BF311}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill>
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="70000"/>
-                      <a:lumOff val="30000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="70000"/>
-                      <a:lumOff val="30000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="70000"/>
-                      <a:lumOff val="30000"/>
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="99000"/>
                       <a:shade val="78000"/>
                     </a:schemeClr>
@@ -1482,207 +1542,45 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-EF6E-B54A-B281-8CFBC16BF311}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.2218915718609985"/>
-                  <c:y val="3.1908328345065844E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-807F-7145-9AC4-6FD2A639CFF4}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.1321595907839688"/>
-                  <c:y val="-0.18265674938032037"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-807F-7145-9AC4-6FD2A639CFF4}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-807F-7145-9AC4-6FD2A639CFF4}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-807F-7145-9AC4-6FD2A639CFF4}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-807F-7145-9AC4-6FD2A639CFF4}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-807F-7145-9AC4-6FD2A639CFF4}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'apps-subset'!$D$2:$D$21</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>MS Windows Operating System</c:v>
+                  <c:v>VistA-CPRS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MS Edge Webview</c:v>
+                  <c:v>MS-Outlook</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MS Edge</c:v>
+                  <c:v>MS-Word</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>VistA-CPRS</c:v>
+                  <c:v>MS-Excel</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>MS-Outlook</c:v>
+                  <c:v>VistA-Scheduling</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Chrome</c:v>
+                  <c:v>VistA-BCMA</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>MS-Word</c:v>
+                  <c:v>Adobe-Acrobat</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>MS-Excel</c:v>
+                  <c:v>MS-Powerpoint</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Reflection for UNIX and OpenVMS</c:v>
+                  <c:v>MS-OneNote</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>VistA-Scheduling</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>VistA-BCMA</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Citrix Workspace</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Cisco AnyConnect Secure Mobility Client</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Reflection for UNIX and OpenVMS</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Adobe-Acrobat</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>MS-Powerpoint</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Acrobat-Reader</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Cisco Jabber Application</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>MS-OneNote</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>MS-Teams</c:v>
                 </c:pt>
               </c:strCache>
@@ -1693,65 +1591,35 @@
               <c:f>'apps-subset'!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>374347977</c:v>
+                  <c:v>264083053</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>274005122</c:v>
+                  <c:v>173058560</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>266793492</c:v>
+                  <c:v>42225417</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>264083053</c:v>
+                  <c:v>32274779</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>173058560</c:v>
+                  <c:v>20044703</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>110321263</c:v>
+                  <c:v>15303341</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42225417</c:v>
+                  <c:v>6990002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32274779</c:v>
+                  <c:v>6340655</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31809244</c:v>
+                  <c:v>4015983</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20044703</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15303341</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14558710</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10374046</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7402880</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6990002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6340655</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5859932</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4489650</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4015983</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>3092167</c:v>
                 </c:pt>
               </c:numCache>
@@ -1766,14 +1634,160 @@
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="100"/>
+        <c:axId val="1080102864"/>
+        <c:axId val="1092717360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1080102864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1092717360"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1092717360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1080102864"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:layout>
+              <c:manualLayout>
+                <c:xMode val="edge"/>
+                <c:yMode val="edge"/>
+                <c:x val="1.441595039777949E-2"/>
+                <c:y val="0.42155549257551161"/>
+              </c:manualLayout>
+            </c:layout>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1782,37 +1796,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1858,10 +1841,13 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2401,15 +2387,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>778840</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>760436</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>156449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>172720</xdr:rowOff>
+      <xdr:colOff>239276</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>61722</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2615,7 +2601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="162" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="75" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -4073,10 +4059,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F44A09F-6A39-374A-8DD0-47718B7E0B89}">
-  <dimension ref="A1:I56"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4084,1634 +4071,1638 @@
     <col min="1" max="1" width="21.83203125" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="8.5" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>374347977</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <v>524955</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2">
         <v>2147483647</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3">
+        <v>274005122</v>
+      </c>
+      <c r="F3">
+        <v>514780</v>
+      </c>
+      <c r="G3">
+        <v>872</v>
+      </c>
+      <c r="H3">
+        <v>314226</v>
+      </c>
+      <c r="I3" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4">
+        <v>266793492</v>
+      </c>
+      <c r="F4">
+        <v>501433</v>
+      </c>
+      <c r="G4">
+        <v>1063</v>
+      </c>
+      <c r="H4">
+        <v>250981</v>
+      </c>
+      <c r="I4" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="3">
-        <v>274005122</v>
-      </c>
-      <c r="F3" s="3">
-        <v>514780</v>
-      </c>
-      <c r="G3" s="3">
-        <v>872</v>
-      </c>
-      <c r="H3" s="3">
-        <v>314226</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="E5">
+        <v>264083053</v>
+      </c>
+      <c r="F5">
+        <v>316743</v>
+      </c>
+      <c r="G5">
+        <v>207774</v>
+      </c>
+      <c r="H5">
+        <v>1271</v>
+      </c>
+      <c r="I5" s="3">
+        <v>52.776795189246499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6">
+        <v>173058560</v>
+      </c>
+      <c r="F6">
+        <v>485069</v>
+      </c>
+      <c r="G6">
+        <v>23784</v>
+      </c>
+      <c r="H6">
+        <v>7276</v>
+      </c>
+      <c r="I6" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7">
+        <v>110321263</v>
+      </c>
+      <c r="F7">
+        <v>262156</v>
+      </c>
+      <c r="G7">
+        <v>1223</v>
+      </c>
+      <c r="H7">
+        <v>90205</v>
+      </c>
+      <c r="I7" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8">
+        <v>42225417</v>
+      </c>
+      <c r="F8">
+        <v>375880</v>
+      </c>
+      <c r="G8">
+        <v>9923</v>
+      </c>
+      <c r="H8">
+        <v>4255</v>
+      </c>
+      <c r="I8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9">
+        <v>32274779</v>
+      </c>
+      <c r="F9">
+        <v>307764</v>
+      </c>
+      <c r="G9">
+        <v>7183</v>
+      </c>
+      <c r="H9">
+        <v>4493</v>
+      </c>
+      <c r="I9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>31809244</v>
+      </c>
+      <c r="F10">
+        <v>130244</v>
+      </c>
+      <c r="G10">
+        <v>6097</v>
+      </c>
+      <c r="H10">
+        <v>5217</v>
+      </c>
+      <c r="I10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11">
+        <v>20044703</v>
+      </c>
+      <c r="F11">
+        <v>64716</v>
+      </c>
+      <c r="G11">
+        <v>37453</v>
+      </c>
+      <c r="H11">
+        <v>535</v>
+      </c>
+      <c r="I11" s="3">
+        <v>21.6731898238748</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12">
+        <v>15303341</v>
+      </c>
+      <c r="F12">
+        <v>22011</v>
+      </c>
+      <c r="G12">
+        <v>5098</v>
+      </c>
+      <c r="H12">
+        <v>3001</v>
+      </c>
+      <c r="I12" s="3">
+        <v>83.374602051644899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <v>14558710</v>
+      </c>
+      <c r="F13">
+        <v>26987</v>
+      </c>
+      <c r="G13">
+        <v>667</v>
+      </c>
+      <c r="H13">
+        <v>21827</v>
+      </c>
+      <c r="I13" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14">
+        <v>10374046</v>
+      </c>
+      <c r="F14">
+        <v>304221</v>
+      </c>
+      <c r="G14">
+        <v>6291</v>
+      </c>
+      <c r="H14">
+        <v>1649</v>
+      </c>
+      <c r="I14" s="3">
+        <v>59.462327555712797</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>7402880</v>
+      </c>
+      <c r="F15">
+        <v>24578</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>2147483647</v>
+      </c>
+      <c r="I15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16">
+        <v>6990002</v>
+      </c>
+      <c r="F16">
+        <v>94739</v>
+      </c>
+      <c r="G16">
+        <v>26486</v>
+      </c>
+      <c r="H16">
+        <v>263</v>
+      </c>
+      <c r="I16" s="3">
+        <v>8.3659491193737807</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17">
+        <v>6340655</v>
+      </c>
+      <c r="F17">
+        <v>111520</v>
+      </c>
+      <c r="G17">
+        <v>827</v>
+      </c>
+      <c r="H17">
+        <v>7667</v>
+      </c>
+      <c r="I17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18">
+        <v>5859932</v>
+      </c>
+      <c r="F18">
+        <v>201365</v>
+      </c>
+      <c r="G18">
+        <v>48415</v>
+      </c>
+      <c r="H18">
+        <v>121</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1.41878669275929</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19">
+        <v>4489650</v>
+      </c>
+      <c r="F19">
+        <v>102170</v>
+      </c>
+      <c r="G19">
+        <v>840</v>
+      </c>
+      <c r="H19">
+        <v>5344</v>
+      </c>
+      <c r="I19" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20">
+        <v>4015983</v>
+      </c>
+      <c r="F20">
+        <v>58716</v>
+      </c>
+      <c r="G20">
+        <v>1848</v>
+      </c>
+      <c r="H20">
+        <v>2173</v>
+      </c>
+      <c r="I20" s="3">
+        <v>68.730102582242694</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21">
+        <v>3092167</v>
+      </c>
+      <c r="F21">
+        <v>509523</v>
+      </c>
+      <c r="G21">
+        <v>2062</v>
+      </c>
+      <c r="H21">
+        <v>1499</v>
+      </c>
+      <c r="I21" s="3">
+        <v>56.809338521400797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22">
+        <v>3002236</v>
+      </c>
+      <c r="F22">
+        <v>34115</v>
+      </c>
+      <c r="G22">
+        <v>3086</v>
+      </c>
+      <c r="H22">
+        <v>972</v>
+      </c>
+      <c r="I22" s="3">
+        <v>43.052837573385503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23">
+        <v>2906985</v>
+      </c>
+      <c r="F23">
+        <v>41567</v>
+      </c>
+      <c r="G23">
+        <v>52</v>
+      </c>
+      <c r="H23">
+        <v>55903</v>
+      </c>
+      <c r="I23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24">
+        <v>2082032</v>
+      </c>
+      <c r="F24">
+        <v>354182</v>
+      </c>
+      <c r="G24">
+        <v>52810</v>
+      </c>
+      <c r="H24">
+        <v>39</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25">
+        <v>2050021</v>
+      </c>
+      <c r="F25">
+        <v>88658</v>
+      </c>
+      <c r="G25">
+        <v>1375</v>
+      </c>
+      <c r="H25">
+        <v>1490</v>
+      </c>
+      <c r="I25" s="3">
+        <v>56.650159179342097</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26">
+        <v>1557977</v>
+      </c>
+      <c r="F26">
+        <v>15835</v>
+      </c>
+      <c r="G26">
+        <v>13257</v>
+      </c>
+      <c r="H26">
+        <v>117</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1.2230919765166299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27">
+        <v>1436951</v>
+      </c>
+      <c r="F27">
+        <v>39436</v>
+      </c>
+      <c r="G27">
+        <v>1648</v>
+      </c>
+      <c r="H27">
+        <v>871</v>
+      </c>
+      <c r="I27" s="3">
+        <v>38.1115459882583</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28">
+        <v>1382028</v>
+      </c>
+      <c r="F28">
+        <v>158093</v>
+      </c>
+      <c r="G28">
+        <v>8262</v>
+      </c>
+      <c r="H28">
+        <v>167</v>
+      </c>
+      <c r="I28" s="3">
+        <v>3.6692759295499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29">
+        <v>1350561</v>
+      </c>
+      <c r="F29">
+        <v>57292</v>
+      </c>
+      <c r="G29">
+        <v>47</v>
+      </c>
+      <c r="H29">
+        <v>28735</v>
+      </c>
+      <c r="I29" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30">
+        <v>1263358</v>
+      </c>
+      <c r="F30">
+        <v>230478</v>
+      </c>
+      <c r="G30">
+        <v>146</v>
+      </c>
+      <c r="H30">
+        <v>8653</v>
+      </c>
+      <c r="I30" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31">
+        <v>1171022</v>
+      </c>
+      <c r="F31">
+        <v>421510</v>
+      </c>
+      <c r="G31">
+        <v>6013</v>
+      </c>
+      <c r="H31">
+        <v>194</v>
+      </c>
+      <c r="I31" s="3">
+        <v>4.9902152641878699</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32">
+        <v>963271</v>
+      </c>
+      <c r="F32">
+        <v>96403</v>
+      </c>
+      <c r="G32">
+        <v>617</v>
+      </c>
+      <c r="H32">
+        <v>1561</v>
+      </c>
+      <c r="I32" s="3">
+        <v>57.905907322249703</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33">
+        <v>938985</v>
+      </c>
+      <c r="F33">
+        <v>173672</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>2147483647</v>
+      </c>
+      <c r="I33" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34">
+        <v>764644</v>
+      </c>
+      <c r="F34">
+        <v>13543</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>2147483647</v>
+      </c>
+      <c r="I34" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35">
+        <v>702077</v>
+      </c>
+      <c r="F35">
+        <v>11730</v>
+      </c>
+      <c r="G35">
+        <v>2396</v>
+      </c>
+      <c r="H35">
+        <v>293</v>
+      </c>
+      <c r="I35" s="3">
+        <v>9.8336594911937407</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36">
+        <v>580241</v>
+      </c>
+      <c r="F36">
+        <v>114348</v>
+      </c>
+      <c r="G36">
+        <v>223</v>
+      </c>
+      <c r="H36">
+        <v>2601</v>
+      </c>
+      <c r="I36" s="3">
+        <v>76.299964626812894</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37">
+        <v>542066</v>
+      </c>
+      <c r="F37">
+        <v>59985</v>
+      </c>
+      <c r="G37">
+        <v>51</v>
+      </c>
+      <c r="H37">
+        <v>10628</v>
+      </c>
+      <c r="I37" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38">
+        <v>536333</v>
+      </c>
+      <c r="F38">
+        <v>18050</v>
+      </c>
+      <c r="G38">
+        <v>3403</v>
+      </c>
+      <c r="H38">
+        <v>157</v>
+      </c>
+      <c r="I38" s="3">
+        <v>3.1800391389432501</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39">
+        <v>375600</v>
+      </c>
+      <c r="F39">
+        <v>12139</v>
+      </c>
+      <c r="G39">
+        <v>45</v>
+      </c>
+      <c r="H39">
+        <v>8346</v>
+      </c>
+      <c r="I39" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40">
+        <v>310812</v>
+      </c>
+      <c r="F40">
+        <v>260280</v>
+      </c>
+      <c r="G40">
+        <v>73</v>
+      </c>
+      <c r="H40">
+        <v>4257</v>
+      </c>
+      <c r="I40" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41">
+        <v>309143</v>
+      </c>
+      <c r="F41">
+        <v>38931</v>
+      </c>
+      <c r="G41">
+        <v>52796</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" t="s">
+        <v>152</v>
+      </c>
+      <c r="E42">
+        <v>293282</v>
+      </c>
+      <c r="F42">
+        <v>17431</v>
+      </c>
+      <c r="G42">
+        <v>348</v>
+      </c>
+      <c r="H42">
+        <v>842</v>
+      </c>
+      <c r="I42" s="3">
+        <v>36.692759295499002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43">
+        <v>271702</v>
+      </c>
+      <c r="F43">
+        <v>43701</v>
+      </c>
+      <c r="G43">
+        <v>1838</v>
+      </c>
+      <c r="H43">
+        <v>147</v>
+      </c>
+      <c r="I43" s="3">
+        <v>2.6908023483366001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44">
+        <v>172437</v>
+      </c>
+      <c r="F44">
+        <v>38283</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>2147483647</v>
+      </c>
+      <c r="I44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45">
+        <v>152139</v>
+      </c>
+      <c r="F45">
+        <v>14950</v>
+      </c>
+      <c r="G45">
+        <v>34</v>
+      </c>
+      <c r="H45">
+        <v>4474</v>
+      </c>
+      <c r="I45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46">
+        <v>140009</v>
+      </c>
+      <c r="F46">
+        <v>31952</v>
+      </c>
+      <c r="G46">
+        <v>434</v>
+      </c>
+      <c r="H46">
+        <v>322</v>
+      </c>
+      <c r="I46" s="3">
+        <v>11.252446183952999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" t="s">
+        <v>170</v>
+      </c>
+      <c r="E47">
+        <v>111051</v>
+      </c>
+      <c r="F47">
+        <v>31576</v>
+      </c>
+      <c r="G47">
+        <v>8278</v>
+      </c>
+      <c r="H47">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48">
+        <v>101498</v>
+      </c>
+      <c r="F48">
+        <v>18323</v>
+      </c>
+      <c r="G48">
+        <v>6693</v>
+      </c>
+      <c r="H48">
+        <v>15</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" s="3">
-        <v>266793492</v>
-      </c>
-      <c r="F4" s="3">
-        <v>501433</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1063</v>
-      </c>
-      <c r="H4" s="3">
-        <v>250981</v>
-      </c>
-      <c r="I4" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="D49" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49">
+        <v>85282</v>
+      </c>
+      <c r="F49">
+        <v>44628</v>
+      </c>
+      <c r="G49">
+        <v>9906</v>
+      </c>
+      <c r="H49">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50">
+        <v>71128</v>
+      </c>
+      <c r="F50">
+        <v>77115</v>
+      </c>
+      <c r="G50">
+        <v>37</v>
+      </c>
+      <c r="H50">
+        <v>1922</v>
+      </c>
+      <c r="I50" s="3">
+        <v>64.290767598160599</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51">
+        <v>29624</v>
+      </c>
+      <c r="F51">
+        <v>18716</v>
+      </c>
+      <c r="G51">
+        <v>82</v>
+      </c>
+      <c r="H51">
+        <v>361</v>
+      </c>
+      <c r="I51" s="3">
+        <v>13.160469667318999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52">
+        <v>12774</v>
+      </c>
+      <c r="F52">
+        <v>28571</v>
+      </c>
+      <c r="G52">
+        <v>1880</v>
+      </c>
+      <c r="H52">
+        <v>6</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53">
+        <v>12566</v>
+      </c>
+      <c r="F53">
+        <v>28883</v>
+      </c>
+      <c r="G53">
+        <v>369</v>
+      </c>
+      <c r="H53">
+        <v>34</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54">
+        <v>4194</v>
+      </c>
+      <c r="F54">
+        <v>19091</v>
+      </c>
+      <c r="G54">
+        <v>238</v>
+      </c>
+      <c r="H54">
+        <v>17</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55">
+        <v>2718</v>
+      </c>
+      <c r="F55">
+        <v>11857</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>1359</v>
+      </c>
+      <c r="I55" s="3">
+        <v>52.830039131499703</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" t="s">
+        <v>118</v>
+      </c>
+      <c r="E56">
+        <v>1140</v>
+      </c>
+      <c r="F56">
+        <v>42200</v>
+      </c>
+      <c r="G56">
         <v>15</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="3">
-        <v>264083053</v>
-      </c>
-      <c r="F5" s="3">
-        <v>316743</v>
-      </c>
-      <c r="G5" s="3">
-        <v>207774</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1271</v>
-      </c>
-      <c r="I5" s="5">
-        <v>52.776795189246499</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="3">
-        <v>173058560</v>
-      </c>
-      <c r="F6" s="3">
-        <v>485069</v>
-      </c>
-      <c r="G6" s="3">
-        <v>23784</v>
-      </c>
-      <c r="H6" s="3">
-        <v>7276</v>
-      </c>
-      <c r="I6" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="3">
-        <v>110321263</v>
-      </c>
-      <c r="F7" s="3">
-        <v>262156</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1223</v>
-      </c>
-      <c r="H7" s="3">
-        <v>90205</v>
-      </c>
-      <c r="I7" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" s="3">
-        <v>42225417</v>
-      </c>
-      <c r="F8" s="3">
-        <v>375880</v>
-      </c>
-      <c r="G8" s="3">
-        <v>9923</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4255</v>
-      </c>
-      <c r="I8" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E9" s="3">
-        <v>32274779</v>
-      </c>
-      <c r="F9" s="3">
-        <v>307764</v>
-      </c>
-      <c r="G9" s="3">
-        <v>7183</v>
-      </c>
-      <c r="H9" s="3">
-        <v>4493</v>
-      </c>
-      <c r="I9" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="3">
-        <v>31809244</v>
-      </c>
-      <c r="F10" s="3">
-        <v>130244</v>
-      </c>
-      <c r="G10" s="3">
-        <v>6097</v>
-      </c>
-      <c r="H10" s="3">
-        <v>5217</v>
-      </c>
-      <c r="I10" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20044703</v>
-      </c>
-      <c r="F11" s="3">
-        <v>64716</v>
-      </c>
-      <c r="G11" s="3">
-        <v>37453</v>
-      </c>
-      <c r="H11" s="3">
-        <v>535</v>
-      </c>
-      <c r="I11" s="5">
-        <v>21.6731898238748</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E12" s="3">
-        <v>15303341</v>
-      </c>
-      <c r="F12" s="3">
-        <v>22011</v>
-      </c>
-      <c r="G12" s="3">
-        <v>5098</v>
-      </c>
-      <c r="H12" s="3">
-        <v>3001</v>
-      </c>
-      <c r="I12" s="5">
-        <v>83.374602051644899</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="3">
-        <v>14558710</v>
-      </c>
-      <c r="F13" s="3">
-        <v>26987</v>
-      </c>
-      <c r="G13" s="3">
-        <v>667</v>
-      </c>
-      <c r="H13" s="3">
-        <v>21827</v>
-      </c>
-      <c r="I13" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="3">
-        <v>10374046</v>
-      </c>
-      <c r="F14" s="3">
-        <v>304221</v>
-      </c>
-      <c r="G14" s="3">
-        <v>6291</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1649</v>
-      </c>
-      <c r="I14" s="5">
-        <v>59.462327555712797</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="3">
-        <v>7402880</v>
-      </c>
-      <c r="F15" s="3">
-        <v>24578</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2147483647</v>
-      </c>
-      <c r="I15" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="3">
-        <v>6990002</v>
-      </c>
-      <c r="F16" s="3">
-        <v>94739</v>
-      </c>
-      <c r="G16" s="3">
-        <v>26486</v>
-      </c>
-      <c r="H16" s="3">
-        <v>263</v>
-      </c>
-      <c r="I16" s="5">
-        <v>8.3659491193737807</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" s="3">
-        <v>6340655</v>
-      </c>
-      <c r="F17" s="3">
-        <v>111520</v>
-      </c>
-      <c r="G17" s="3">
-        <v>827</v>
-      </c>
-      <c r="H17" s="3">
-        <v>7667</v>
-      </c>
-      <c r="I17" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5859932</v>
-      </c>
-      <c r="F18" s="3">
-        <v>201365</v>
-      </c>
-      <c r="G18" s="3">
-        <v>48415</v>
-      </c>
-      <c r="H18" s="3">
-        <v>121</v>
-      </c>
-      <c r="I18" s="5">
-        <v>1.41878669275929</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="3">
-        <v>4489650</v>
-      </c>
-      <c r="F19" s="3">
-        <v>102170</v>
-      </c>
-      <c r="G19" s="3">
-        <v>840</v>
-      </c>
-      <c r="H19" s="3">
-        <v>5344</v>
-      </c>
-      <c r="I19" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4015983</v>
-      </c>
-      <c r="F20" s="3">
-        <v>58716</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1848</v>
-      </c>
-      <c r="H20" s="3">
-        <v>2173</v>
-      </c>
-      <c r="I20" s="5">
-        <v>68.730102582242694</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E21" s="3">
-        <v>3092167</v>
-      </c>
-      <c r="F21" s="3">
-        <v>509523</v>
-      </c>
-      <c r="G21" s="3">
-        <v>2062</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1499</v>
-      </c>
-      <c r="I21" s="5">
-        <v>56.809338521400797</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3002236</v>
-      </c>
-      <c r="F22" s="3">
-        <v>34115</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3086</v>
-      </c>
-      <c r="H22" s="3">
-        <v>972</v>
-      </c>
-      <c r="I22" s="5">
-        <v>43.052837573385503</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2906985</v>
-      </c>
-      <c r="F23" s="3">
-        <v>41567</v>
-      </c>
-      <c r="G23" s="3">
-        <v>52</v>
-      </c>
-      <c r="H23" s="3">
-        <v>55903</v>
-      </c>
-      <c r="I23" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2082032</v>
-      </c>
-      <c r="F24" s="3">
-        <v>354182</v>
-      </c>
-      <c r="G24" s="3">
-        <v>52810</v>
-      </c>
-      <c r="H24" s="3">
-        <v>39</v>
-      </c>
-      <c r="I24" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2050021</v>
-      </c>
-      <c r="F25" s="3">
-        <v>88658</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1375</v>
-      </c>
-      <c r="H25" s="3">
-        <v>1490</v>
-      </c>
-      <c r="I25" s="5">
-        <v>56.650159179342097</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1557977</v>
-      </c>
-      <c r="F26" s="3">
-        <v>15835</v>
-      </c>
-      <c r="G26" s="3">
-        <v>13257</v>
-      </c>
-      <c r="H26" s="3">
-        <v>117</v>
-      </c>
-      <c r="I26" s="5">
-        <v>1.2230919765166299</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1436951</v>
-      </c>
-      <c r="F27" s="3">
-        <v>39436</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1648</v>
-      </c>
-      <c r="H27" s="3">
-        <v>871</v>
-      </c>
-      <c r="I27" s="5">
-        <v>38.1115459882583</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1382028</v>
-      </c>
-      <c r="F28" s="3">
-        <v>158093</v>
-      </c>
-      <c r="G28" s="3">
-        <v>8262</v>
-      </c>
-      <c r="H28" s="3">
-        <v>167</v>
-      </c>
-      <c r="I28" s="5">
-        <v>3.6692759295499</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1350561</v>
-      </c>
-      <c r="F29" s="3">
-        <v>57292</v>
-      </c>
-      <c r="G29" s="3">
-        <v>47</v>
-      </c>
-      <c r="H29" s="3">
-        <v>28735</v>
-      </c>
-      <c r="I29" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1263358</v>
-      </c>
-      <c r="F30" s="3">
-        <v>230478</v>
-      </c>
-      <c r="G30" s="3">
-        <v>146</v>
-      </c>
-      <c r="H30" s="3">
-        <v>8653</v>
-      </c>
-      <c r="I30" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1171022</v>
-      </c>
-      <c r="F31" s="3">
-        <v>421510</v>
-      </c>
-      <c r="G31" s="3">
-        <v>6013</v>
-      </c>
-      <c r="H31" s="3">
-        <v>194</v>
-      </c>
-      <c r="I31" s="5">
-        <v>4.9902152641878699</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E32" s="3">
-        <v>963271</v>
-      </c>
-      <c r="F32" s="3">
-        <v>96403</v>
-      </c>
-      <c r="G32" s="3">
-        <v>617</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1561</v>
-      </c>
-      <c r="I32" s="5">
-        <v>57.905907322249703</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="3">
-        <v>938985</v>
-      </c>
-      <c r="F33" s="3">
-        <v>173672</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>2147483647</v>
-      </c>
-      <c r="I33" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="3">
-        <v>764644</v>
-      </c>
-      <c r="F34" s="3">
-        <v>13543</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3">
-        <v>2147483647</v>
-      </c>
-      <c r="I34" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E35" s="3">
-        <v>702077</v>
-      </c>
-      <c r="F35" s="3">
-        <v>11730</v>
-      </c>
-      <c r="G35" s="3">
-        <v>2396</v>
-      </c>
-      <c r="H35" s="3">
-        <v>293</v>
-      </c>
-      <c r="I35" s="5">
-        <v>9.8336594911937407</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E36" s="3">
-        <v>580241</v>
-      </c>
-      <c r="F36" s="3">
-        <v>114348</v>
-      </c>
-      <c r="G36" s="3">
-        <v>223</v>
-      </c>
-      <c r="H36" s="3">
-        <v>2601</v>
-      </c>
-      <c r="I36" s="5">
-        <v>76.299964626812894</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" s="3">
-        <v>542066</v>
-      </c>
-      <c r="F37" s="3">
-        <v>59985</v>
-      </c>
-      <c r="G37" s="3">
-        <v>51</v>
-      </c>
-      <c r="H37" s="3">
-        <v>10628</v>
-      </c>
-      <c r="I37" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="3">
-        <v>536333</v>
-      </c>
-      <c r="F38" s="3">
-        <v>18050</v>
-      </c>
-      <c r="G38" s="3">
-        <v>3403</v>
-      </c>
-      <c r="H38" s="3">
-        <v>157</v>
-      </c>
-      <c r="I38" s="5">
-        <v>3.1800391389432501</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="3">
-        <v>375600</v>
-      </c>
-      <c r="F39" s="3">
-        <v>12139</v>
-      </c>
-      <c r="G39" s="3">
-        <v>45</v>
-      </c>
-      <c r="H39" s="3">
-        <v>8346</v>
-      </c>
-      <c r="I39" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" s="3">
-        <v>310812</v>
-      </c>
-      <c r="F40" s="3">
-        <v>260280</v>
-      </c>
-      <c r="G40" s="3">
-        <v>73</v>
-      </c>
-      <c r="H40" s="3">
-        <v>4257</v>
-      </c>
-      <c r="I40" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E41" s="3">
-        <v>309143</v>
-      </c>
-      <c r="F41" s="3">
-        <v>38931</v>
-      </c>
-      <c r="G41" s="3">
-        <v>52796</v>
-      </c>
-      <c r="H41" s="3">
-        <v>5</v>
-      </c>
-      <c r="I41" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E42" s="3">
-        <v>293282</v>
-      </c>
-      <c r="F42" s="3">
-        <v>17431</v>
-      </c>
-      <c r="G42" s="3">
-        <v>348</v>
-      </c>
-      <c r="H42" s="3">
-        <v>842</v>
-      </c>
-      <c r="I42" s="5">
-        <v>36.692759295499002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E43" s="3">
-        <v>271702</v>
-      </c>
-      <c r="F43" s="3">
-        <v>43701</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1838</v>
-      </c>
-      <c r="H43" s="3">
-        <v>147</v>
-      </c>
-      <c r="I43" s="5">
-        <v>2.6908023483366001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" s="3">
-        <v>172437</v>
-      </c>
-      <c r="F44" s="3">
-        <v>38283</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>2147483647</v>
-      </c>
-      <c r="I44" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" s="3">
-        <v>152139</v>
-      </c>
-      <c r="F45" s="3">
-        <v>14950</v>
-      </c>
-      <c r="G45" s="3">
-        <v>34</v>
-      </c>
-      <c r="H45" s="3">
-        <v>4474</v>
-      </c>
-      <c r="I45" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E46" s="3">
-        <v>140009</v>
-      </c>
-      <c r="F46" s="3">
-        <v>31952</v>
-      </c>
-      <c r="G46" s="3">
-        <v>434</v>
-      </c>
-      <c r="H46" s="3">
-        <v>322</v>
-      </c>
-      <c r="I46" s="5">
-        <v>11.252446183952999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E47" s="3">
-        <v>111051</v>
-      </c>
-      <c r="F47" s="3">
-        <v>31576</v>
-      </c>
-      <c r="G47" s="3">
-        <v>8278</v>
-      </c>
-      <c r="H47" s="3">
-        <v>13</v>
-      </c>
-      <c r="I47" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3">
-        <v>101498</v>
-      </c>
-      <c r="F48" s="3">
-        <v>18323</v>
-      </c>
-      <c r="G48" s="3">
-        <v>6693</v>
-      </c>
-      <c r="H48" s="3">
-        <v>15</v>
-      </c>
-      <c r="I48" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E49" s="3">
-        <v>85282</v>
-      </c>
-      <c r="F49" s="3">
-        <v>44628</v>
-      </c>
-      <c r="G49" s="3">
-        <v>9906</v>
-      </c>
-      <c r="H49" s="3">
-        <v>8</v>
-      </c>
-      <c r="I49" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E50" s="3">
-        <v>71128</v>
-      </c>
-      <c r="F50" s="3">
-        <v>77115</v>
-      </c>
-      <c r="G50" s="3">
-        <v>37</v>
-      </c>
-      <c r="H50" s="3">
-        <v>1922</v>
-      </c>
-      <c r="I50" s="5">
-        <v>64.290767598160599</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="3">
-        <v>29624</v>
-      </c>
-      <c r="F51" s="3">
-        <v>18716</v>
-      </c>
-      <c r="G51" s="3">
-        <v>82</v>
-      </c>
-      <c r="H51" s="3">
-        <v>361</v>
-      </c>
-      <c r="I51" s="5">
-        <v>13.160469667318999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E52" s="3">
-        <v>12774</v>
-      </c>
-      <c r="F52" s="3">
-        <v>28571</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1880</v>
-      </c>
-      <c r="H52" s="3">
-        <v>6</v>
-      </c>
-      <c r="I52" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E53" s="3">
-        <v>12566</v>
-      </c>
-      <c r="F53" s="3">
-        <v>28883</v>
-      </c>
-      <c r="G53" s="3">
-        <v>369</v>
-      </c>
-      <c r="H53" s="3">
-        <v>34</v>
-      </c>
-      <c r="I53" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E54" s="3">
-        <v>4194</v>
-      </c>
-      <c r="F54" s="3">
-        <v>19091</v>
-      </c>
-      <c r="G54" s="3">
-        <v>238</v>
-      </c>
-      <c r="H54" s="3">
-        <v>17</v>
-      </c>
-      <c r="I54" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E55" s="3">
-        <v>2718</v>
-      </c>
-      <c r="F55" s="3">
-        <v>11857</v>
-      </c>
-      <c r="G55" s="3">
-        <v>2</v>
-      </c>
-      <c r="H55" s="3">
-        <v>1359</v>
-      </c>
-      <c r="I55" s="5">
-        <v>52.830039131499703</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E56" s="3">
-        <v>1140</v>
-      </c>
-      <c r="F56" s="3">
-        <v>42200</v>
-      </c>
-      <c r="G56" s="3">
-        <v>15</v>
-      </c>
-      <c r="H56" s="3">
+      <c r="H56">
         <v>76</v>
       </c>
-      <c r="I56" s="5">
+      <c r="I56" s="3">
         <v>36.089138668946802</v>
       </c>
     </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:J57" xr:uid="{9F44A09F-6A39-374A-8DD0-47718B7E0B89}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="clinical"/>
+        <filter val="office"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J57">
       <sortCondition descending="1" ref="E1:E57"/>
     </sortState>

--- a/ref/app-monitoring/data/AppPerformance.xlsx
+++ b/ref/app-monitoring/data/AppPerformance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafael/cloudvista/vaa/ref/app-monitoring/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A8E1C6-BB12-D348-855D-D68C5C616E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD9DC3C-7926-344D-B326-C5081B5AFE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="500" windowWidth="28600" windowHeight="19680" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AppPerformance" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,25 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AppPerformance!$A$1:$H$57</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'apps-subset'!$A$1:$J$57</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'apps-subset'!$D$2:$D$21</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'apps-subset'!$E$2:$E$21</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'apps-subset'!$D$2:$D$21</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'apps-subset'!$E$2:$E$21</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'apps-subset'!$D$2:$D$21</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'apps-subset'!$E$2:$E$21</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'apps-subset'!$D$2:$D$21</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'apps-subset'!$E$2:$E$21</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'apps-subset'!$D$2:$D$21</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'apps-subset'!$E$2:$E$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'apps-subset'!$A$1:$K$57</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'apps-subset'!$D$2:$D$26</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'apps-subset'!$F$2:$F$26</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'apps-subset'!$D$2:$D$26</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'apps-subset'!$F$2:$F$26</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="172">
   <si>
     <t>AppName</t>
   </si>
@@ -405,9 +410,6 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>AppUsageDuration</t>
-  </si>
-  <si>
     <t>Crashes</t>
   </si>
   <si>
@@ -528,31 +530,37 @@
     <t>VistA-BCMA</t>
   </si>
   <si>
-    <t>MS-Outlook</t>
-  </si>
-  <si>
-    <t>MS-Word</t>
-  </si>
-  <si>
-    <t>MS-Excel</t>
-  </si>
-  <si>
-    <t>Adobe-Acrobat</t>
-  </si>
-  <si>
-    <t>MS-Powerpoint</t>
-  </si>
-  <si>
-    <t>MS-OneNote</t>
-  </si>
-  <si>
-    <t>MS-Teams</t>
-  </si>
-  <si>
     <t>VistA-CPRS-Booster</t>
   </si>
   <si>
     <t>VistA-CPRS_Launcher</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Acrobat</t>
+  </si>
+  <si>
+    <t>Outlook</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>Powerpoint</t>
+  </si>
+  <si>
+    <t>OneNote</t>
+  </si>
+  <si>
+    <t>AppUse (hr)</t>
+  </si>
+  <si>
+    <t>AppUse (min)</t>
   </si>
 </sst>
 </file>
@@ -663,8 +671,22 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>VA End-user application use duration </a:t>
+              <a:rPr kumimoji="0" lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t> VA Application Use</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -672,12 +694,35 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>(thousands of hours per week)</a:t>
+              <a:rPr kumimoji="0" lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>(millions of hours per week)</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26209697617553729"/>
+          <c:y val="2.1529227098968436E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -748,822 +793,22 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-                <a:tileRect/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-807F-7145-9AC4-6FD2A639CFF4}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-                <a:tileRect/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-807F-7145-9AC4-6FD2A639CFF4}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-                <a:tileRect/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-EF6E-B54A-B281-8CFBC16BF311}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-                <a:tileRect/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-EF6E-B54A-B281-8CFBC16BF311}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-                <a:tileRect/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-EF6E-B54A-B281-8CFBC16BF311}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-                <a:tileRect/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-EF6E-B54A-B281-8CFBC16BF311}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-                <a:tileRect/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-807F-7145-9AC4-6FD2A639CFF4}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-                <a:tileRect/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-807F-7145-9AC4-6FD2A639CFF4}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-                <a:tileRect/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-807F-7145-9AC4-6FD2A639CFF4}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-                <a:tileRect/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-807F-7145-9AC4-6FD2A639CFF4}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-                <a:tileRect/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-EF6E-B54A-B281-8CFBC16BF311}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-                <a:tileRect/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-EF6E-B54A-B281-8CFBC16BF311}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-                <a:tileRect/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-EF6E-B54A-B281-8CFBC16BF311}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-                <a:tileRect/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-EF6E-B54A-B281-8CFBC16BF311}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-                <a:tileRect/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-EF6E-B54A-B281-8CFBC16BF311}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-                <a:tileRect/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-EF6E-B54A-B281-8CFBC16BF311}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="16"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-                <a:tileRect/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-EF6E-B54A-B281-8CFBC16BF311}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="17"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-                <a:tileRect/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-EF6E-B54A-B281-8CFBC16BF311}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="18"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-                <a:tileRect/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-EF6E-B54A-B281-8CFBC16BF311}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="19"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-                <a:tileRect/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-EF6E-B54A-B281-8CFBC16BF311}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'apps-subset'!$D$2:$D$21</c:f>
+              <c:f>'apps-subset'!$D$5:$D$26</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>VistA-CPRS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MS-Outlook</c:v>
+                  <c:v>Outlook</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MS-Word</c:v>
+                  <c:v>Word</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MS-Excel</c:v>
+                  <c:v>Excel</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>VistA-Scheduling</c:v>
@@ -1572,62 +817,68 @@
                   <c:v>VistA-BCMA</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Adobe-Acrobat</c:v>
+                  <c:v>Powerpoint</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>MS-Powerpoint</c:v>
+                  <c:v>OneNote</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>MS-OneNote</c:v>
+                  <c:v>Teams</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>MS-Teams</c:v>
+                  <c:v>VistA-Imaging</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>VistA-CAPRI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'apps-subset'!$E$2:$E$21</c:f>
+              <c:f>'apps-subset'!$E$5:$E$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>264083053</c:v>
+                  <c:v>4401384.2166666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>173058560</c:v>
+                  <c:v>2884309.3333333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42225417</c:v>
+                  <c:v>703756.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32274779</c:v>
+                  <c:v>537912.98333333328</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20044703</c:v>
+                  <c:v>334078.38333333336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15303341</c:v>
+                  <c:v>255055.68333333332</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6990002</c:v>
+                  <c:v>105677.58333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6340655</c:v>
+                  <c:v>66933.05</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4015983</c:v>
+                  <c:v>51536.116666666669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3092167</c:v>
+                  <c:v>34167.01666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25966.283333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-807F-7145-9AC4-6FD2A639CFF4}"/>
+              <c16:uniqueId val="{00000000-F830-E245-9AB6-1C0DEE1EBA2B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1639,19 +890,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:axId val="1080102864"/>
-        <c:axId val="1092717360"/>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="1628762416"/>
+        <c:axId val="1690093456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1080102864"/>
+        <c:axId val="1628762416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1687,14 +939,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1092717360"/>
+        <c:crossAx val="1690093456"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1092717360"/>
+        <c:axId val="1690093456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1714,8 +966,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1745,17 +997,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1080102864"/>
+        <c:crossAx val="1628762416"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
-          <c:builtInUnit val="thousands"/>
+          <c:builtInUnit val="millions"/>
           <c:dispUnitsLbl>
             <c:layout>
               <c:manualLayout>
                 <c:xMode val="edge"/>
                 <c:yMode val="edge"/>
-                <c:x val="1.441595039777949E-2"/>
-                <c:y val="0.42155549257551161"/>
+                <c:x val="2.5621381547259091E-2"/>
+                <c:y val="0.44345051924400292"/>
               </c:manualLayout>
             </c:layout>
             <c:spPr>
@@ -2386,16 +1638,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>760436</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>156449</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>708162</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>239276</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>61722</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>453572</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>172356</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4060,10 +3312,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F44A09F-6A39-374A-8DD0-47718B7E0B89}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4072,19 +3324,20 @@
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>119</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C1" t="s">
         <v>120</v>
@@ -4092,260 +3345,295 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
         <v>121</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2">
+        <v>139</v>
+      </c>
+      <c r="E2" s="3">
+        <f>F2/60</f>
+        <v>6239132.9500000002</v>
+      </c>
+      <c r="F2">
         <v>374347977</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>524955</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2147483647</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3">
+        <v>153</v>
+      </c>
+      <c r="E3" s="3">
+        <f>F3/60</f>
+        <v>4566752.0333333332</v>
+      </c>
+      <c r="F3">
         <v>274005122</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>514780</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>872</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>314226</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4">
+        <v>154</v>
+      </c>
+      <c r="E4" s="3">
+        <f>F4/60</f>
+        <v>4446558.2</v>
+      </c>
+      <c r="F4">
         <v>266793492</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>501433</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1063</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>250981</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
         <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E5">
+        <v>155</v>
+      </c>
+      <c r="E5" s="3">
+        <f>F5/60</f>
+        <v>4401384.2166666668</v>
+      </c>
+      <c r="F5">
         <v>264083053</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>316743</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>207774</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1271</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>52.776795189246499</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E6">
+        <v>165</v>
+      </c>
+      <c r="E6" s="3">
+        <f>F6/60</f>
+        <v>2884309.3333333335</v>
+      </c>
+      <c r="F6">
         <v>173058560</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>485069</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>23784</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>7276</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7">
+        <v>145</v>
+      </c>
+      <c r="E7" s="3">
+        <f>F7/60</f>
+        <v>1838687.7166666666</v>
+      </c>
+      <c r="F7">
         <v>110321263</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>262156</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1223</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>90205</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8">
+        <v>166</v>
+      </c>
+      <c r="E8" s="3">
+        <f>F8/60</f>
+        <v>703756.95</v>
+      </c>
+      <c r="F8">
         <v>42225417</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>375880</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>9923</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>4255</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E9">
+        <v>167</v>
+      </c>
+      <c r="E9" s="3">
+        <f>F9/60</f>
+        <v>537912.98333333328</v>
+      </c>
+      <c r="F9">
         <v>32274779</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>307764</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>7183</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>4493</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -4353,521 +3641,593 @@
       <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
+        <f>F10/60</f>
+        <v>530154.06666666665</v>
+      </c>
+      <c r="F10">
         <v>31809244</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>130244</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>6097</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>5217</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
         <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11">
+        <v>156</v>
+      </c>
+      <c r="E11" s="3">
+        <f>F11/60</f>
+        <v>334078.38333333336</v>
+      </c>
+      <c r="F11">
         <v>20044703</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>64716</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>37453</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>535</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>21.6731898238748</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
         <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E12">
+        <v>160</v>
+      </c>
+      <c r="E12" s="3">
+        <f>F12/60</f>
+        <v>255055.68333333332</v>
+      </c>
+      <c r="F12">
         <v>15303341</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>22011</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>5098</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>3001</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>83.374602051644899</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
+        <f>F13/60</f>
+        <v>242645.16666666666</v>
+      </c>
+      <c r="F13">
         <v>14558710</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>26987</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>667</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>21827</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" t="s">
         <v>34</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
+        <f>F14/60</f>
+        <v>172900.76666666666</v>
+      </c>
+      <c r="F14">
         <v>10374046</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>304221</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>6291</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1649</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>59.462327555712797</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s">
         <v>25</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
+        <f>F15/60</f>
+        <v>123381.33333333333</v>
+      </c>
+      <c r="F15">
         <v>7402880</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>24578</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2147483647</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16">
+        <v>164</v>
+      </c>
+      <c r="E16" s="3">
+        <f>F16/60</f>
+        <v>116500.03333333334</v>
+      </c>
+      <c r="F16">
         <v>6990002</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>94739</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>26486</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>263</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>8.3659491193737807</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="D17" t="s">
-        <v>166</v>
-      </c>
-      <c r="E17">
+        <v>168</v>
+      </c>
+      <c r="E17" s="3">
+        <f>F17/60</f>
+        <v>105677.58333333333</v>
+      </c>
+      <c r="F17">
         <v>6340655</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>111520</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>827</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>7667</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18">
+        <v>157</v>
+      </c>
+      <c r="E18" s="3">
+        <f>F18/60</f>
+        <v>97665.53333333334</v>
+      </c>
+      <c r="F18">
         <v>5859932</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>201365</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>48415</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>121</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1.41878669275929</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
         <v>44</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
+        <f>F19/60</f>
+        <v>74827.5</v>
+      </c>
+      <c r="F19">
         <v>4489650</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>102170</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>840</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>5344</v>
       </c>
-      <c r="I19" s="3">
+      <c r="J19" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="D20" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20">
+        <v>169</v>
+      </c>
+      <c r="E20" s="3">
+        <f>F20/60</f>
+        <v>66933.05</v>
+      </c>
+      <c r="F20">
         <v>4015983</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>58716</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1848</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>2173</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>68.730102582242694</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="D21" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21">
+        <v>146</v>
+      </c>
+      <c r="E21" s="3">
+        <f>F21/60</f>
+        <v>51536.116666666669</v>
+      </c>
+      <c r="F21">
         <v>3092167</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>509523</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>2062</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1499</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>56.809338521400797</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
         <v>51</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
+        <f>F22/60</f>
+        <v>50037.26666666667</v>
+      </c>
+      <c r="F22">
         <v>3002236</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>34115</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>3086</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>972</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>43.052837573385503</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>148</v>
-      </c>
-      <c r="E23">
+        <v>147</v>
+      </c>
+      <c r="E23" s="3">
+        <f>F23/60</f>
+        <v>48449.75</v>
+      </c>
+      <c r="F23">
         <v>2906985</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>41567</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>52</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>55903</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D24" t="s">
         <v>54</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
+        <f>F24/60</f>
+        <v>34700.533333333333</v>
+      </c>
+      <c r="F24">
         <v>2082032</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>354182</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>52810</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>39</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>56</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" t="s">
         <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
-      </c>
-      <c r="E25">
+        <v>158</v>
+      </c>
+      <c r="E25" s="3">
+        <f>F25/60</f>
+        <v>34167.01666666667</v>
+      </c>
+      <c r="F25">
         <v>2050021</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>88658</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1375</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>1490</v>
       </c>
-      <c r="I25" s="3">
+      <c r="J25" s="3">
         <v>56.650159179342097</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>58</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C26" t="s">
         <v>116</v>
       </c>
       <c r="D26" t="s">
-        <v>160</v>
-      </c>
-      <c r="E26">
+        <v>159</v>
+      </c>
+      <c r="E26" s="3">
+        <f>F26/60</f>
+        <v>25966.283333333333</v>
+      </c>
+      <c r="F26">
         <v>1557977</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>15835</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>13257</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>117</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1.2230919765166299</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
-      </c>
-      <c r="E27">
+        <v>148</v>
+      </c>
+      <c r="E27" s="3">
+        <f>F27/60</f>
+        <v>23949.183333333334</v>
+      </c>
+      <c r="F27">
         <v>1436951</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>39436</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1648</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>871</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>38.1115459882583</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C28" t="s">
         <v>26</v>
@@ -4875,344 +4235,392 @@
       <c r="D28" t="s">
         <v>63</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
+        <f>F28/60</f>
+        <v>23033.8</v>
+      </c>
+      <c r="F28">
         <v>1382028</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>158093</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>8262</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>167</v>
       </c>
-      <c r="I28" s="3">
+      <c r="J28" s="3">
         <v>3.6692759295499</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>64</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D29" t="s">
         <v>65</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
+        <f>F29/60</f>
+        <v>22509.35</v>
+      </c>
+      <c r="F29">
         <v>1350561</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>57292</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>47</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>28735</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>67</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D30" t="s">
         <v>68</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
+        <f>F30/60</f>
+        <v>21055.966666666667</v>
+      </c>
+      <c r="F30">
         <v>1263358</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>230478</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>146</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>8653</v>
       </c>
-      <c r="I30" s="3">
+      <c r="J30" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>70</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
-      </c>
-      <c r="E31">
+        <v>149</v>
+      </c>
+      <c r="E31" s="3">
+        <f>F31/60</f>
+        <v>19517.033333333333</v>
+      </c>
+      <c r="F31">
         <v>1171022</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>421510</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>6013</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>194</v>
       </c>
-      <c r="I31" s="3">
+      <c r="J31" s="3">
         <v>4.9902152641878699</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>72</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s">
-        <v>151</v>
-      </c>
-      <c r="E32">
+        <v>150</v>
+      </c>
+      <c r="E32" s="3">
+        <f>F32/60</f>
+        <v>16054.516666666666</v>
+      </c>
+      <c r="F32">
         <v>963271</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>96403</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>617</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>1561</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>57.905907322249703</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D33" t="s">
         <v>75</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
+        <f>F33/60</f>
+        <v>15649.75</v>
+      </c>
+      <c r="F33">
         <v>938985</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>173672</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>2147483647</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
         <v>117</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
+        <f>F34/60</f>
+        <v>12744.066666666668</v>
+      </c>
+      <c r="F34">
         <v>764644</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>13543</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>2147483647</v>
       </c>
-      <c r="I34" s="3">
+      <c r="J34" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E35">
+        <v>152</v>
+      </c>
+      <c r="E35" s="3">
+        <f>F35/60</f>
+        <v>11701.283333333333</v>
+      </c>
+      <c r="F35">
         <v>702077</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>11730</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>2396</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>293</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9.8336594911937407</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
-      </c>
-      <c r="E36">
+        <v>144</v>
+      </c>
+      <c r="E36" s="3">
+        <f>F36/60</f>
+        <v>9670.6833333333325</v>
+      </c>
+      <c r="F36">
         <v>580241</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>114348</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>223</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>2601</v>
       </c>
-      <c r="I36" s="3">
+      <c r="J36" s="3">
         <v>76.299964626812894</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D37" t="s">
         <v>81</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
+        <f>F37/60</f>
+        <v>9034.4333333333325</v>
+      </c>
+      <c r="F37">
         <v>542066</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>59985</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>51</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>10628</v>
       </c>
-      <c r="I37" s="3">
+      <c r="J37" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
         <v>84</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
+        <f>F38/60</f>
+        <v>8938.8833333333332</v>
+      </c>
+      <c r="F38">
         <v>536333</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>18050</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>3403</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>157</v>
       </c>
-      <c r="I38" s="3">
+      <c r="J38" s="3">
         <v>3.1800391389432501</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D39" t="s">
         <v>31</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="3">
+        <f>F39/60</f>
+        <v>6260</v>
+      </c>
+      <c r="F39">
         <v>375600</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>12139</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>45</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>8346</v>
       </c>
-      <c r="I39" s="3">
+      <c r="J39" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>87</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C40" t="s">
         <v>89</v>
@@ -5220,115 +4628,131 @@
       <c r="D40" t="s">
         <v>88</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
+        <f>F40/60</f>
+        <v>5180.2</v>
+      </c>
+      <c r="F40">
         <v>310812</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>260280</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>73</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>4257</v>
       </c>
-      <c r="I40" s="3">
+      <c r="J40" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>90</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="D41" t="s">
-        <v>147</v>
-      </c>
-      <c r="E41">
+        <v>146</v>
+      </c>
+      <c r="E41" s="3">
+        <f>F41/60</f>
+        <v>5152.3833333333332</v>
+      </c>
+      <c r="F41">
         <v>309143</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>38931</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>52796</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>5</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>91</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" t="s">
-        <v>152</v>
-      </c>
-      <c r="E42">
+        <v>151</v>
+      </c>
+      <c r="E42" s="3">
+        <f>F42/60</f>
+        <v>4888.0333333333338</v>
+      </c>
+      <c r="F42">
         <v>293282</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>17431</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>348</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>842</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>36.692759295499002</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C43" t="s">
         <v>116</v>
       </c>
       <c r="D43" t="s">
-        <v>169</v>
-      </c>
-      <c r="E43">
+        <v>161</v>
+      </c>
+      <c r="E43" s="3">
+        <f>F43/60</f>
+        <v>4528.3666666666668</v>
+      </c>
+      <c r="F43">
         <v>271702</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>43701</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>1838</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>147</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2.6908023483366001</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>74</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C44" t="s">
         <v>95</v>
@@ -5336,374 +4760,432 @@
       <c r="D44" t="s">
         <v>94</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
+        <f>F44/60</f>
+        <v>2873.95</v>
+      </c>
+      <c r="F44">
         <v>172437</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>38283</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>0</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>2147483647</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>96</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
         <v>97</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
+        <f>F45/60</f>
+        <v>2535.65</v>
+      </c>
+      <c r="F45">
         <v>152139</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>14950</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>34</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>4474</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D46" t="s">
         <v>115</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
+        <f>F46/60</f>
+        <v>2333.4833333333331</v>
+      </c>
+      <c r="F46">
         <v>140009</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>31952</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>434</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>322</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11.252446183952999</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C47" t="s">
         <v>116</v>
       </c>
       <c r="D47" t="s">
-        <v>170</v>
-      </c>
-      <c r="E47">
+        <v>162</v>
+      </c>
+      <c r="E47" s="3">
+        <f>F47/60</f>
+        <v>1850.85</v>
+      </c>
+      <c r="F47">
         <v>111051</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>31576</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>8278</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>13</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C48" t="s">
         <v>101</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
+        <f>F48/60</f>
+        <v>1691.6333333333334</v>
+      </c>
+      <c r="F48">
         <v>101498</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>18323</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>6693</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>15</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>102</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D49" t="s">
         <v>115</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
+        <f>F49/60</f>
+        <v>1421.3666666666666</v>
+      </c>
+      <c r="F49">
         <v>85282</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>44628</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>9906</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>8</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D50" t="s">
         <v>104</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="3">
+        <f>F50/60</f>
+        <v>1185.4666666666667</v>
+      </c>
+      <c r="F50">
         <v>71128</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>77115</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>37</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>1922</v>
       </c>
-      <c r="I50" s="3">
+      <c r="J50" s="3">
         <v>64.290767598160599</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D51" t="s">
         <v>31</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
+        <f>F51/60</f>
+        <v>493.73333333333335</v>
+      </c>
+      <c r="F51">
         <v>29624</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>18716</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>82</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>361</v>
       </c>
-      <c r="I51" s="3">
+      <c r="J51" s="3">
         <v>13.160469667318999</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>106</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D52" t="s">
         <v>115</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
+        <f>F52/60</f>
+        <v>212.9</v>
+      </c>
+      <c r="F52">
         <v>12774</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>28571</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>1880</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>6</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>107</v>
       </c>
       <c r="C53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D53" t="s">
         <v>108</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="3">
+        <f>F53/60</f>
+        <v>209.43333333333334</v>
+      </c>
+      <c r="F53">
         <v>12566</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>28883</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>369</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>34</v>
       </c>
-      <c r="I53" s="3">
+      <c r="J53" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>110</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D54" t="s">
         <v>31</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="3">
+        <f>F54/60</f>
+        <v>69.900000000000006</v>
+      </c>
+      <c r="F54">
         <v>4194</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>19091</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>238</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>17</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D55" t="s">
-        <v>143</v>
-      </c>
-      <c r="E55">
+        <v>142</v>
+      </c>
+      <c r="E55" s="3">
+        <f>F55/60</f>
+        <v>45.3</v>
+      </c>
+      <c r="F55">
         <v>2718</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>11857</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>2</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>1359</v>
       </c>
-      <c r="I55" s="3">
+      <c r="J55" s="3">
         <v>52.830039131499703</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>110</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D56" t="s">
         <v>118</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="3">
+        <f>F56/60</f>
+        <v>19</v>
+      </c>
+      <c r="F56">
         <v>1140</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>42200</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>15</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>76</v>
       </c>
-      <c r="I56" s="3">
+      <c r="J56" s="3">
         <v>36.089138668946802</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:J57" xr:uid="{9F44A09F-6A39-374A-8DD0-47718B7E0B89}">
+  <autoFilter ref="A1:K57" xr:uid="{9F44A09F-6A39-374A-8DD0-47718B7E0B89}">
     <filterColumn colId="1">
       <filters>
         <filter val="clinical"/>
         <filter val="office"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J57">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="MS"/>
+        <filter val="VA"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K57">
       <sortCondition descending="1" ref="E1:E57"/>
     </sortState>
   </autoFilter>

--- a/ref/app-monitoring/data/AppPerformance.xlsx
+++ b/ref/app-monitoring/data/AppPerformance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafael/cloudvista/vaa/ref/app-monitoring/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD9DC3C-7926-344D-B326-C5081B5AFE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9BA829-E705-3142-B92E-F835FAAE16A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AppPerformance!$A$1:$H$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'apps-subset'!$A$1:$K$57</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'apps-subset'!$D$2:$D$26</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'apps-subset'!$F$2:$F$26</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'apps-subset'!$G$2:$G$26</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'apps-subset'!$D$2:$D$26</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'apps-subset'!$F$2:$F$26</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'apps-subset'!$G$2:$G$26</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -686,7 +686,7 @@
                 <a:uFillTx/>
                 <a:latin typeface="Calibri" panose="020F0502020204030204"/>
               </a:rPr>
-              <a:t> VA Application Use</a:t>
+              <a:t> VA Application Use - Nationwide</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -719,8 +719,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.26209697617553729"/>
-          <c:y val="2.1529227098968436E-2"/>
+          <c:x val="0.30341293418502613"/>
+          <c:y val="1.9371979415255862E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -795,9 +795,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'apps-subset'!$D$5:$D$26</c:f>
+              <c:f>'apps-subset'!$D$5:$D$40</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>VistA-CPRS</c:v>
                 </c:pt>
@@ -817,18 +817,21 @@
                   <c:v>VistA-BCMA</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Acrobat</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Powerpoint</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>OneNote</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Teams</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>VistA-Imaging</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>VistA-CAPRI</c:v>
                 </c:pt>
               </c:strCache>
@@ -836,10 +839,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'apps-subset'!$E$5:$E$26</c:f>
+              <c:f>'apps-subset'!$E$5:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>4401384.2166666668</c:v>
                 </c:pt>
@@ -859,18 +862,21 @@
                   <c:v>255055.68333333332</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>116500.03333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>105677.58333333333</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>66933.05</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>51536.116666666669</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>34167.01666666667</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>25966.283333333333</c:v>
                 </c:pt>
               </c:numCache>
@@ -1639,15 +1645,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>708162</xdr:colOff>
+      <xdr:colOff>708161</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>18142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>453572</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>172356</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>462642</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3314,8 +3320,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3325,8 +3331,8 @@
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="8.5" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" style="3" customWidth="1"/>
@@ -3349,10 +3355,10 @@
         <v>170</v>
       </c>
       <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>171</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
       </c>
       <c r="H1" t="s">
         <v>121</v>
@@ -3378,14 +3384,14 @@
         <v>139</v>
       </c>
       <c r="E2" s="3">
-        <f>F2/60</f>
+        <f>G2/60</f>
         <v>6239132.9500000002</v>
       </c>
       <c r="F2">
+        <v>524955</v>
+      </c>
+      <c r="G2">
         <v>374347977</v>
-      </c>
-      <c r="G2">
-        <v>524955</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3411,14 +3417,14 @@
         <v>153</v>
       </c>
       <c r="E3" s="3">
-        <f>F3/60</f>
+        <f>G3/60</f>
         <v>4566752.0333333332</v>
       </c>
       <c r="F3">
+        <v>514780</v>
+      </c>
+      <c r="G3">
         <v>274005122</v>
-      </c>
-      <c r="G3">
-        <v>514780</v>
       </c>
       <c r="H3">
         <v>872</v>
@@ -3444,14 +3450,14 @@
         <v>154</v>
       </c>
       <c r="E4" s="3">
-        <f>F4/60</f>
+        <f>G4/60</f>
         <v>4446558.2</v>
       </c>
       <c r="F4">
+        <v>501433</v>
+      </c>
+      <c r="G4">
         <v>266793492</v>
-      </c>
-      <c r="G4">
-        <v>501433</v>
       </c>
       <c r="H4">
         <v>1063</v>
@@ -3477,14 +3483,14 @@
         <v>155</v>
       </c>
       <c r="E5" s="3">
-        <f>F5/60</f>
+        <f>G5/60</f>
         <v>4401384.2166666668</v>
       </c>
       <c r="F5">
+        <v>316743</v>
+      </c>
+      <c r="G5">
         <v>264083053</v>
-      </c>
-      <c r="G5">
-        <v>316743</v>
       </c>
       <c r="H5">
         <v>207774</v>
@@ -3510,14 +3516,14 @@
         <v>165</v>
       </c>
       <c r="E6" s="3">
-        <f>F6/60</f>
+        <f>G6/60</f>
         <v>2884309.3333333335</v>
       </c>
       <c r="F6">
+        <v>485069</v>
+      </c>
+      <c r="G6">
         <v>173058560</v>
-      </c>
-      <c r="G6">
-        <v>485069</v>
       </c>
       <c r="H6">
         <v>23784</v>
@@ -3543,14 +3549,14 @@
         <v>145</v>
       </c>
       <c r="E7" s="3">
-        <f>F7/60</f>
+        <f>G7/60</f>
         <v>1838687.7166666666</v>
       </c>
       <c r="F7">
+        <v>262156</v>
+      </c>
+      <c r="G7">
         <v>110321263</v>
-      </c>
-      <c r="G7">
-        <v>262156</v>
       </c>
       <c r="H7">
         <v>1223</v>
@@ -3576,14 +3582,14 @@
         <v>166</v>
       </c>
       <c r="E8" s="3">
-        <f>F8/60</f>
+        <f>G8/60</f>
         <v>703756.95</v>
       </c>
       <c r="F8">
+        <v>375880</v>
+      </c>
+      <c r="G8">
         <v>42225417</v>
-      </c>
-      <c r="G8">
-        <v>375880</v>
       </c>
       <c r="H8">
         <v>9923</v>
@@ -3609,14 +3615,14 @@
         <v>167</v>
       </c>
       <c r="E9" s="3">
-        <f>F9/60</f>
+        <f>G9/60</f>
         <v>537912.98333333328</v>
       </c>
       <c r="F9">
+        <v>307764</v>
+      </c>
+      <c r="G9">
         <v>32274779</v>
-      </c>
-      <c r="G9">
-        <v>307764</v>
       </c>
       <c r="H9">
         <v>7183</v>
@@ -3642,14 +3648,14 @@
         <v>25</v>
       </c>
       <c r="E10" s="3">
-        <f>F10/60</f>
+        <f>G10/60</f>
         <v>530154.06666666665</v>
       </c>
       <c r="F10">
+        <v>130244</v>
+      </c>
+      <c r="G10">
         <v>31809244</v>
-      </c>
-      <c r="G10">
-        <v>130244</v>
       </c>
       <c r="H10">
         <v>6097</v>
@@ -3675,14 +3681,14 @@
         <v>156</v>
       </c>
       <c r="E11" s="3">
-        <f>F11/60</f>
+        <f>G11/60</f>
         <v>334078.38333333336</v>
       </c>
       <c r="F11">
+        <v>64716</v>
+      </c>
+      <c r="G11">
         <v>20044703</v>
-      </c>
-      <c r="G11">
-        <v>64716</v>
       </c>
       <c r="H11">
         <v>37453</v>
@@ -3708,14 +3714,14 @@
         <v>160</v>
       </c>
       <c r="E12" s="3">
-        <f>F12/60</f>
+        <f>G12/60</f>
         <v>255055.68333333332</v>
       </c>
       <c r="F12">
+        <v>22011</v>
+      </c>
+      <c r="G12">
         <v>15303341</v>
-      </c>
-      <c r="G12">
-        <v>22011</v>
       </c>
       <c r="H12">
         <v>5098</v>
@@ -3741,14 +3747,14 @@
         <v>31</v>
       </c>
       <c r="E13" s="3">
-        <f>F13/60</f>
+        <f>G13/60</f>
         <v>242645.16666666666</v>
       </c>
       <c r="F13">
+        <v>26987</v>
+      </c>
+      <c r="G13">
         <v>14558710</v>
-      </c>
-      <c r="G13">
-        <v>26987</v>
       </c>
       <c r="H13">
         <v>667</v>
@@ -3774,14 +3780,14 @@
         <v>34</v>
       </c>
       <c r="E14" s="3">
-        <f>F14/60</f>
+        <f>G14/60</f>
         <v>172900.76666666666</v>
       </c>
       <c r="F14">
+        <v>304221</v>
+      </c>
+      <c r="G14">
         <v>10374046</v>
-      </c>
-      <c r="G14">
-        <v>304221</v>
       </c>
       <c r="H14">
         <v>6291</v>
@@ -3807,14 +3813,14 @@
         <v>25</v>
       </c>
       <c r="E15" s="3">
-        <f>F15/60</f>
+        <f>G15/60</f>
         <v>123381.33333333333</v>
       </c>
       <c r="F15">
+        <v>24578</v>
+      </c>
+      <c r="G15">
         <v>7402880</v>
-      </c>
-      <c r="G15">
-        <v>24578</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -3826,7 +3832,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -3840,14 +3846,14 @@
         <v>164</v>
       </c>
       <c r="E16" s="3">
-        <f>F16/60</f>
+        <f>G16/60</f>
         <v>116500.03333333334</v>
       </c>
       <c r="F16">
+        <v>94739</v>
+      </c>
+      <c r="G16">
         <v>6990002</v>
-      </c>
-      <c r="G16">
-        <v>94739</v>
       </c>
       <c r="H16">
         <v>26486</v>
@@ -3873,14 +3879,14 @@
         <v>168</v>
       </c>
       <c r="E17" s="3">
-        <f>F17/60</f>
+        <f>G17/60</f>
         <v>105677.58333333333</v>
       </c>
       <c r="F17">
+        <v>111520</v>
+      </c>
+      <c r="G17">
         <v>6340655</v>
-      </c>
-      <c r="G17">
-        <v>111520</v>
       </c>
       <c r="H17">
         <v>827</v>
@@ -3906,14 +3912,14 @@
         <v>157</v>
       </c>
       <c r="E18" s="3">
-        <f>F18/60</f>
+        <f>G18/60</f>
         <v>97665.53333333334</v>
       </c>
       <c r="F18">
+        <v>201365</v>
+      </c>
+      <c r="G18">
         <v>5859932</v>
-      </c>
-      <c r="G18">
-        <v>201365</v>
       </c>
       <c r="H18">
         <v>48415</v>
@@ -3939,14 +3945,14 @@
         <v>44</v>
       </c>
       <c r="E19" s="3">
-        <f>F19/60</f>
+        <f>G19/60</f>
         <v>74827.5</v>
       </c>
       <c r="F19">
+        <v>102170</v>
+      </c>
+      <c r="G19">
         <v>4489650</v>
-      </c>
-      <c r="G19">
-        <v>102170</v>
       </c>
       <c r="H19">
         <v>840</v>
@@ -3972,14 +3978,14 @@
         <v>169</v>
       </c>
       <c r="E20" s="3">
-        <f>F20/60</f>
+        <f>G20/60</f>
         <v>66933.05</v>
       </c>
       <c r="F20">
+        <v>58716</v>
+      </c>
+      <c r="G20">
         <v>4015983</v>
-      </c>
-      <c r="G20">
-        <v>58716</v>
       </c>
       <c r="H20">
         <v>1848</v>
@@ -4005,14 +4011,14 @@
         <v>146</v>
       </c>
       <c r="E21" s="3">
-        <f>F21/60</f>
+        <f>G21/60</f>
         <v>51536.116666666669</v>
       </c>
       <c r="F21">
+        <v>509523</v>
+      </c>
+      <c r="G21">
         <v>3092167</v>
-      </c>
-      <c r="G21">
-        <v>509523</v>
       </c>
       <c r="H21">
         <v>2062</v>
@@ -4038,14 +4044,14 @@
         <v>51</v>
       </c>
       <c r="E22" s="3">
-        <f>F22/60</f>
+        <f>G22/60</f>
         <v>50037.26666666667</v>
       </c>
       <c r="F22">
+        <v>34115</v>
+      </c>
+      <c r="G22">
         <v>3002236</v>
-      </c>
-      <c r="G22">
-        <v>34115</v>
       </c>
       <c r="H22">
         <v>3086</v>
@@ -4071,14 +4077,14 @@
         <v>147</v>
       </c>
       <c r="E23" s="3">
-        <f>F23/60</f>
+        <f>G23/60</f>
         <v>48449.75</v>
       </c>
       <c r="F23">
+        <v>41567</v>
+      </c>
+      <c r="G23">
         <v>2906985</v>
-      </c>
-      <c r="G23">
-        <v>41567</v>
       </c>
       <c r="H23">
         <v>52</v>
@@ -4104,14 +4110,14 @@
         <v>54</v>
       </c>
       <c r="E24" s="3">
-        <f>F24/60</f>
+        <f>G24/60</f>
         <v>34700.533333333333</v>
       </c>
       <c r="F24">
+        <v>354182</v>
+      </c>
+      <c r="G24">
         <v>2082032</v>
-      </c>
-      <c r="G24">
-        <v>354182</v>
       </c>
       <c r="H24">
         <v>52810</v>
@@ -4137,14 +4143,14 @@
         <v>158</v>
       </c>
       <c r="E25" s="3">
-        <f>F25/60</f>
+        <f>G25/60</f>
         <v>34167.01666666667</v>
       </c>
       <c r="F25">
+        <v>88658</v>
+      </c>
+      <c r="G25">
         <v>2050021</v>
-      </c>
-      <c r="G25">
-        <v>88658</v>
       </c>
       <c r="H25">
         <v>1375</v>
@@ -4170,14 +4176,14 @@
         <v>159</v>
       </c>
       <c r="E26" s="3">
-        <f>F26/60</f>
+        <f>G26/60</f>
         <v>25966.283333333333</v>
       </c>
       <c r="F26">
+        <v>15835</v>
+      </c>
+      <c r="G26">
         <v>1557977</v>
-      </c>
-      <c r="G26">
-        <v>15835</v>
       </c>
       <c r="H26">
         <v>13257</v>
@@ -4203,14 +4209,14 @@
         <v>148</v>
       </c>
       <c r="E27" s="3">
-        <f>F27/60</f>
+        <f>G27/60</f>
         <v>23949.183333333334</v>
       </c>
       <c r="F27">
+        <v>39436</v>
+      </c>
+      <c r="G27">
         <v>1436951</v>
-      </c>
-      <c r="G27">
-        <v>39436</v>
       </c>
       <c r="H27">
         <v>1648</v>
@@ -4236,14 +4242,14 @@
         <v>63</v>
       </c>
       <c r="E28" s="3">
-        <f>F28/60</f>
+        <f>G28/60</f>
         <v>23033.8</v>
       </c>
       <c r="F28">
+        <v>158093</v>
+      </c>
+      <c r="G28">
         <v>1382028</v>
-      </c>
-      <c r="G28">
-        <v>158093</v>
       </c>
       <c r="H28">
         <v>8262</v>
@@ -4269,14 +4275,14 @@
         <v>65</v>
       </c>
       <c r="E29" s="3">
-        <f>F29/60</f>
+        <f>G29/60</f>
         <v>22509.35</v>
       </c>
       <c r="F29">
+        <v>57292</v>
+      </c>
+      <c r="G29">
         <v>1350561</v>
-      </c>
-      <c r="G29">
-        <v>57292</v>
       </c>
       <c r="H29">
         <v>47</v>
@@ -4302,14 +4308,14 @@
         <v>68</v>
       </c>
       <c r="E30" s="3">
-        <f>F30/60</f>
+        <f>G30/60</f>
         <v>21055.966666666667</v>
       </c>
       <c r="F30">
+        <v>230478</v>
+      </c>
+      <c r="G30">
         <v>1263358</v>
-      </c>
-      <c r="G30">
-        <v>230478</v>
       </c>
       <c r="H30">
         <v>146</v>
@@ -4335,14 +4341,14 @@
         <v>149</v>
       </c>
       <c r="E31" s="3">
-        <f>F31/60</f>
+        <f>G31/60</f>
         <v>19517.033333333333</v>
       </c>
       <c r="F31">
+        <v>421510</v>
+      </c>
+      <c r="G31">
         <v>1171022</v>
-      </c>
-      <c r="G31">
-        <v>421510</v>
       </c>
       <c r="H31">
         <v>6013</v>
@@ -4368,14 +4374,14 @@
         <v>150</v>
       </c>
       <c r="E32" s="3">
-        <f>F32/60</f>
+        <f>G32/60</f>
         <v>16054.516666666666</v>
       </c>
       <c r="F32">
+        <v>96403</v>
+      </c>
+      <c r="G32">
         <v>963271</v>
-      </c>
-      <c r="G32">
-        <v>96403</v>
       </c>
       <c r="H32">
         <v>617</v>
@@ -4401,14 +4407,14 @@
         <v>75</v>
       </c>
       <c r="E33" s="3">
-        <f>F33/60</f>
+        <f>G33/60</f>
         <v>15649.75</v>
       </c>
       <c r="F33">
+        <v>173672</v>
+      </c>
+      <c r="G33">
         <v>938985</v>
-      </c>
-      <c r="G33">
-        <v>173672</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -4434,14 +4440,14 @@
         <v>117</v>
       </c>
       <c r="E34" s="3">
-        <f>F34/60</f>
+        <f>G34/60</f>
         <v>12744.066666666668</v>
       </c>
       <c r="F34">
+        <v>13543</v>
+      </c>
+      <c r="G34">
         <v>764644</v>
-      </c>
-      <c r="G34">
-        <v>13543</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -4464,14 +4470,14 @@
         <v>152</v>
       </c>
       <c r="E35" s="3">
-        <f>F35/60</f>
+        <f>G35/60</f>
         <v>11701.283333333333</v>
       </c>
       <c r="F35">
+        <v>11730</v>
+      </c>
+      <c r="G35">
         <v>702077</v>
-      </c>
-      <c r="G35">
-        <v>11730</v>
       </c>
       <c r="H35">
         <v>2396</v>
@@ -4497,14 +4503,14 @@
         <v>144</v>
       </c>
       <c r="E36" s="3">
-        <f>F36/60</f>
+        <f>G36/60</f>
         <v>9670.6833333333325</v>
       </c>
       <c r="F36">
+        <v>114348</v>
+      </c>
+      <c r="G36">
         <v>580241</v>
-      </c>
-      <c r="G36">
-        <v>114348</v>
       </c>
       <c r="H36">
         <v>223</v>
@@ -4530,14 +4536,14 @@
         <v>81</v>
       </c>
       <c r="E37" s="3">
-        <f>F37/60</f>
+        <f>G37/60</f>
         <v>9034.4333333333325</v>
       </c>
       <c r="F37">
+        <v>59985</v>
+      </c>
+      <c r="G37">
         <v>542066</v>
-      </c>
-      <c r="G37">
-        <v>59985</v>
       </c>
       <c r="H37">
         <v>51</v>
@@ -4563,14 +4569,14 @@
         <v>84</v>
       </c>
       <c r="E38" s="3">
-        <f>F38/60</f>
+        <f>G38/60</f>
         <v>8938.8833333333332</v>
       </c>
       <c r="F38">
+        <v>18050</v>
+      </c>
+      <c r="G38">
         <v>536333</v>
-      </c>
-      <c r="G38">
-        <v>18050</v>
       </c>
       <c r="H38">
         <v>3403</v>
@@ -4596,14 +4602,14 @@
         <v>31</v>
       </c>
       <c r="E39" s="3">
-        <f>F39/60</f>
+        <f>G39/60</f>
         <v>6260</v>
       </c>
       <c r="F39">
+        <v>12139</v>
+      </c>
+      <c r="G39">
         <v>375600</v>
-      </c>
-      <c r="G39">
-        <v>12139</v>
       </c>
       <c r="H39">
         <v>45</v>
@@ -4629,14 +4635,14 @@
         <v>88</v>
       </c>
       <c r="E40" s="3">
-        <f>F40/60</f>
+        <f>G40/60</f>
         <v>5180.2</v>
       </c>
       <c r="F40">
+        <v>260280</v>
+      </c>
+      <c r="G40">
         <v>310812</v>
-      </c>
-      <c r="G40">
-        <v>260280</v>
       </c>
       <c r="H40">
         <v>73</v>
@@ -4662,14 +4668,14 @@
         <v>146</v>
       </c>
       <c r="E41" s="3">
-        <f>F41/60</f>
+        <f>G41/60</f>
         <v>5152.3833333333332</v>
       </c>
       <c r="F41">
+        <v>38931</v>
+      </c>
+      <c r="G41">
         <v>309143</v>
-      </c>
-      <c r="G41">
-        <v>38931</v>
       </c>
       <c r="H41">
         <v>52796</v>
@@ -4695,14 +4701,14 @@
         <v>151</v>
       </c>
       <c r="E42" s="3">
-        <f>F42/60</f>
+        <f>G42/60</f>
         <v>4888.0333333333338</v>
       </c>
       <c r="F42">
+        <v>17431</v>
+      </c>
+      <c r="G42">
         <v>293282</v>
-      </c>
-      <c r="G42">
-        <v>17431</v>
       </c>
       <c r="H42">
         <v>348</v>
@@ -4728,14 +4734,14 @@
         <v>161</v>
       </c>
       <c r="E43" s="3">
-        <f>F43/60</f>
+        <f>G43/60</f>
         <v>4528.3666666666668</v>
       </c>
       <c r="F43">
+        <v>43701</v>
+      </c>
+      <c r="G43">
         <v>271702</v>
-      </c>
-      <c r="G43">
-        <v>43701</v>
       </c>
       <c r="H43">
         <v>1838</v>
@@ -4761,14 +4767,14 @@
         <v>94</v>
       </c>
       <c r="E44" s="3">
-        <f>F44/60</f>
+        <f>G44/60</f>
         <v>2873.95</v>
       </c>
       <c r="F44">
+        <v>38283</v>
+      </c>
+      <c r="G44">
         <v>172437</v>
-      </c>
-      <c r="G44">
-        <v>38283</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4794,14 +4800,14 @@
         <v>97</v>
       </c>
       <c r="E45" s="3">
-        <f>F45/60</f>
+        <f>G45/60</f>
         <v>2535.65</v>
       </c>
       <c r="F45">
+        <v>14950</v>
+      </c>
+      <c r="G45">
         <v>152139</v>
-      </c>
-      <c r="G45">
-        <v>14950</v>
       </c>
       <c r="H45">
         <v>34</v>
@@ -4827,14 +4833,14 @@
         <v>115</v>
       </c>
       <c r="E46" s="3">
-        <f>F46/60</f>
+        <f>G46/60</f>
         <v>2333.4833333333331</v>
       </c>
       <c r="F46">
+        <v>31952</v>
+      </c>
+      <c r="G46">
         <v>140009</v>
-      </c>
-      <c r="G46">
-        <v>31952</v>
       </c>
       <c r="H46">
         <v>434</v>
@@ -4860,14 +4866,14 @@
         <v>162</v>
       </c>
       <c r="E47" s="3">
-        <f>F47/60</f>
+        <f>G47/60</f>
         <v>1850.85</v>
       </c>
       <c r="F47">
+        <v>31576</v>
+      </c>
+      <c r="G47">
         <v>111051</v>
-      </c>
-      <c r="G47">
-        <v>31576</v>
       </c>
       <c r="H47">
         <v>8278</v>
@@ -4890,14 +4896,14 @@
         <v>101</v>
       </c>
       <c r="E48" s="3">
-        <f>F48/60</f>
+        <f>G48/60</f>
         <v>1691.6333333333334</v>
       </c>
       <c r="F48">
+        <v>18323</v>
+      </c>
+      <c r="G48">
         <v>101498</v>
-      </c>
-      <c r="G48">
-        <v>18323</v>
       </c>
       <c r="H48">
         <v>6693</v>
@@ -4923,14 +4929,14 @@
         <v>115</v>
       </c>
       <c r="E49" s="3">
-        <f>F49/60</f>
+        <f>G49/60</f>
         <v>1421.3666666666666</v>
       </c>
       <c r="F49">
+        <v>44628</v>
+      </c>
+      <c r="G49">
         <v>85282</v>
-      </c>
-      <c r="G49">
-        <v>44628</v>
       </c>
       <c r="H49">
         <v>9906</v>
@@ -4956,14 +4962,14 @@
         <v>104</v>
       </c>
       <c r="E50" s="3">
-        <f>F50/60</f>
+        <f>G50/60</f>
         <v>1185.4666666666667</v>
       </c>
       <c r="F50">
+        <v>77115</v>
+      </c>
+      <c r="G50">
         <v>71128</v>
-      </c>
-      <c r="G50">
-        <v>77115</v>
       </c>
       <c r="H50">
         <v>37</v>
@@ -4989,14 +4995,14 @@
         <v>31</v>
       </c>
       <c r="E51" s="3">
-        <f>F51/60</f>
+        <f>G51/60</f>
         <v>493.73333333333335</v>
       </c>
       <c r="F51">
+        <v>18716</v>
+      </c>
+      <c r="G51">
         <v>29624</v>
-      </c>
-      <c r="G51">
-        <v>18716</v>
       </c>
       <c r="H51">
         <v>82</v>
@@ -5022,14 +5028,14 @@
         <v>115</v>
       </c>
       <c r="E52" s="3">
-        <f>F52/60</f>
+        <f>G52/60</f>
         <v>212.9</v>
       </c>
       <c r="F52">
+        <v>28571</v>
+      </c>
+      <c r="G52">
         <v>12774</v>
-      </c>
-      <c r="G52">
-        <v>28571</v>
       </c>
       <c r="H52">
         <v>1880</v>
@@ -5052,14 +5058,14 @@
         <v>108</v>
       </c>
       <c r="E53" s="3">
-        <f>F53/60</f>
+        <f>G53/60</f>
         <v>209.43333333333334</v>
       </c>
       <c r="F53">
+        <v>28883</v>
+      </c>
+      <c r="G53">
         <v>12566</v>
-      </c>
-      <c r="G53">
-        <v>28883</v>
       </c>
       <c r="H53">
         <v>369</v>
@@ -5085,14 +5091,14 @@
         <v>31</v>
       </c>
       <c r="E54" s="3">
-        <f>F54/60</f>
+        <f>G54/60</f>
         <v>69.900000000000006</v>
       </c>
       <c r="F54">
+        <v>19091</v>
+      </c>
+      <c r="G54">
         <v>4194</v>
-      </c>
-      <c r="G54">
-        <v>19091</v>
       </c>
       <c r="H54">
         <v>238</v>
@@ -5118,14 +5124,14 @@
         <v>142</v>
       </c>
       <c r="E55" s="3">
-        <f>F55/60</f>
+        <f>G55/60</f>
         <v>45.3</v>
       </c>
       <c r="F55">
+        <v>11857</v>
+      </c>
+      <c r="G55">
         <v>2718</v>
-      </c>
-      <c r="G55">
-        <v>11857</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5151,14 +5157,14 @@
         <v>118</v>
       </c>
       <c r="E56" s="3">
-        <f>F56/60</f>
+        <f>G56/60</f>
         <v>19</v>
       </c>
       <c r="F56">
+        <v>42200</v>
+      </c>
+      <c r="G56">
         <v>1140</v>
-      </c>
-      <c r="G56">
-        <v>42200</v>
       </c>
       <c r="H56">
         <v>15</v>
@@ -5177,12 +5183,6 @@
       <filters>
         <filter val="clinical"/>
         <filter val="office"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="MS"/>
-        <filter val="VA"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K57">
